--- a/cbrunner/Parameters/Parameters_DisturbanceBySeverityClass.xlsx
+++ b/cbrunner/Parameters/Parameters_DisturbanceBySeverityClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA62086-2482-460F-8DB4-29FEFF2D3FCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC644A2A-5871-4A67-951B-D10D26F3F243}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{C4A0EEE3-6C0C-4781-B707-DFD67C25DDD8}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{C4A0EEE3-6C0C-4781-B707-DFD67C25DDD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="52">
   <si>
     <t>T</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t xml:space="preserve">DMR 1-2: Present but no impact on growth or mortality (H. Kope pers comm.) </t>
+  </si>
+  <si>
+    <t>IDL</t>
+  </si>
+  <si>
+    <t>Marnie Duthie-Holt</t>
   </si>
 </sst>
 </file>
@@ -591,32 +597,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A61E662-E6C2-4460-B73B-153058C82987}">
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="720" topLeftCell="A19" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="720" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" style="6" customWidth="1"/>
-    <col min="16" max="30" width="8.85546875" style="6"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="25.88671875" style="6" customWidth="1"/>
+    <col min="16" max="30" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -678,7 +684,7 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -732,7 +738,7 @@
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -787,9 +793,9 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <f t="shared" ref="A4:A38" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -842,7 +848,7 @@
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -897,7 +903,7 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -952,7 +958,7 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1004,7 +1010,7 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1056,7 +1062,7 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1108,7 +1114,7 @@
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1160,7 +1166,7 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1212,7 +1218,7 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1264,7 +1270,7 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1316,7 +1322,7 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1368,7 +1374,7 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1420,7 +1426,7 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1472,7 +1478,7 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1530,7 +1536,7 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1588,7 +1594,7 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1646,7 +1652,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1704,7 +1710,7 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1762,7 +1768,7 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1814,7 +1820,7 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1868,7 +1874,7 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1922,7 +1928,7 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1976,7 +1982,7 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2030,7 +2036,7 @@
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2084,7 +2090,7 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2138,7 +2144,7 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2192,7 +2198,7 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2246,7 +2252,7 @@
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2300,7 +2306,7 @@
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2354,7 +2360,7 @@
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2390,7 +2396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2426,7 +2432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2460,6 +2466,78 @@
       </c>
       <c r="O35" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>33</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="1">
+        <v>-15</v>
+      </c>
+      <c r="N36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>66</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L37" s="1">
+        <v>-15</v>
+      </c>
+      <c r="N37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="1">
+        <v>100</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" s="1">
+        <v>-15</v>
+      </c>
+      <c r="N38" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_DisturbanceBySeverityClass.xlsx
+++ b/cbrunner/Parameters/Parameters_DisturbanceBySeverityClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC644A2A-5871-4A67-951B-D10D26F3F243}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE71B80-3BD2-4729-8DD0-F6F7ABD404A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{C4A0EEE3-6C0C-4781-B707-DFD67C25DDD8}"/>
   </bookViews>
@@ -602,7 +602,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="720" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:A38"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/cbrunner/Parameters/Parameters_DisturbanceBySeverityClass.xlsx
+++ b/cbrunner/Parameters/Parameters_DisturbanceBySeverityClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE71B80-3BD2-4729-8DD0-F6F7ABD404A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5231548E-BDC7-4572-A56C-33AFB5F58170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{C4A0EEE3-6C0C-4781-B707-DFD67C25DDD8}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{C4A0EEE3-6C0C-4781-B707-DFD67C25DDD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="53">
   <si>
     <t>T</t>
   </si>
@@ -187,6 +189,9 @@
   </si>
   <si>
     <t>Marnie Duthie-Holt</t>
+  </si>
+  <si>
+    <t>2020 Forest Health report, Table 1</t>
   </si>
 </sst>
 </file>
@@ -600,9 +605,9 @@
   <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="720" topLeftCell="A22" activePane="bottomLeft"/>
+      <pane ySplit="720" activePane="bottomLeft"/>
       <selection activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD38"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -765,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -817,10 +822,10 @@
         <v>31</v>
       </c>
       <c r="J4" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
@@ -872,10 +877,10 @@
         <v>31</v>
       </c>
       <c r="J5" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -930,7 +935,7 @@
         <v>75</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -982,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -1034,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -1083,10 +1088,10 @@
         <v>43</v>
       </c>
       <c r="J9" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -1135,10 +1140,10 @@
         <v>43</v>
       </c>
       <c r="J10" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -1190,7 +1195,7 @@
         <v>75</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
@@ -1242,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
@@ -1294,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
@@ -1343,10 +1348,10 @@
         <v>36</v>
       </c>
       <c r="J14" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -1395,10 +1400,10 @@
         <v>36</v>
       </c>
       <c r="J15" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
@@ -1450,7 +1455,7 @@
         <v>75</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
@@ -1508,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
@@ -1566,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
@@ -1621,10 +1626,10 @@
         <v>3</v>
       </c>
       <c r="J19" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
@@ -1679,10 +1684,10 @@
         <v>3</v>
       </c>
       <c r="J20" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -1740,7 +1745,7 @@
         <v>75</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -1791,9 +1796,7 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K22" s="1"/>
       <c r="L22" s="1">
         <v>0</v>
       </c>
@@ -1843,9 +1846,7 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K23" s="1"/>
       <c r="L23" s="1">
         <v>-7</v>
       </c>
@@ -1897,9 +1898,7 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K24" s="1"/>
       <c r="L24" s="1">
         <v>-39</v>
       </c>
@@ -1951,9 +1950,7 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K25" s="1"/>
       <c r="L25" s="1">
         <v>-51</v>
       </c>
@@ -2005,9 +2002,7 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="1">
         <v>-75</v>
       </c>
@@ -2059,9 +2054,7 @@
       <c r="J27" s="1">
         <v>5</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K27" s="1"/>
       <c r="L27" s="1">
         <v>-39</v>
       </c>
@@ -2113,9 +2106,7 @@
       <c r="J28" s="1">
         <v>10</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K28" s="1"/>
       <c r="L28" s="1">
         <v>-39</v>
       </c>
@@ -2167,9 +2158,7 @@
       <c r="J29" s="1">
         <v>15</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K29" s="1"/>
       <c r="L29" s="1">
         <v>-39</v>
       </c>
@@ -2221,9 +2210,7 @@
       <c r="J30" s="1">
         <v>15</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K30" s="1"/>
       <c r="L30" s="1">
         <v>-51</v>
       </c>
@@ -2275,9 +2262,7 @@
       <c r="J31" s="1">
         <v>20</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K31" s="1"/>
       <c r="L31" s="1">
         <v>-51</v>
       </c>
@@ -2329,9 +2314,7 @@
       <c r="J32" s="1">
         <v>25</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K32" s="1"/>
       <c r="L32" s="1">
         <v>-75</v>
       </c>
@@ -2380,9 +2363,7 @@
       <c r="J33" s="1">
         <v>0</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K33" s="1"/>
       <c r="L33" s="1">
         <v>0</v>
       </c>

--- a/cbrunner/Parameters/Parameters_DisturbanceBySeverityClass.xlsx
+++ b/cbrunner/Parameters/Parameters_DisturbanceBySeverityClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5231548E-BDC7-4572-A56C-33AFB5F58170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2E9E1A-5AA7-4F79-85D2-072D58794CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{C4A0EEE3-6C0C-4781-B707-DFD67C25DDD8}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{C4A0EEE3-6C0C-4781-B707-DFD67C25DDD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="54">
   <si>
     <t>T</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>2020 Forest Health report, Table 1</t>
+  </si>
+  <si>
+    <t>MortalityFactorOld</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -269,16 +272,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -602,12 +598,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A61E662-E6C2-4460-B73B-153058C82987}">
-  <dimension ref="A1:AD38"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="720" activePane="bottomLeft"/>
-      <selection activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,78 +614,68 @@
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" style="6" customWidth="1"/>
-    <col min="16" max="30" width="8.88671875" style="6"/>
+    <col min="10" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="16" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -714,36 +700,39 @@
       <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -769,36 +758,39 @@
       <c r="J3" s="1">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A38" si="0">A3+1</f>
         <v>3</v>
@@ -824,36 +816,39 @@
       <c r="J4" s="1">
         <v>20</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -879,36 +874,39 @@
       <c r="J5" s="1">
         <v>40</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="1">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -934,36 +932,39 @@
       <c r="J6" s="1">
         <v>75</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="1">
+        <v>40</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -986,36 +987,39 @@
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1038,36 +1042,39 @@
       <c r="J8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1090,36 +1097,39 @@
       <c r="J9" s="1">
         <v>20</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1142,36 +1152,39 @@
       <c r="J10" s="1">
         <v>40</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1194,36 +1207,39 @@
       <c r="J11" s="1">
         <v>75</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="1">
+        <v>40</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1246,36 +1262,39 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1298,36 +1317,39 @@
       <c r="J13" s="1">
         <v>5</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1350,36 +1372,39 @@
       <c r="J14" s="1">
         <v>20</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1402,36 +1427,39 @@
       <c r="J15" s="1">
         <v>40</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1454,36 +1482,39 @@
       <c r="J16" s="1">
         <v>75</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="1">
+        <v>40</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1512,36 +1543,39 @@
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1570,36 +1604,39 @@
       <c r="J18" s="1">
         <v>5</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1628,36 +1665,39 @@
       <c r="J19" s="1">
         <v>20</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1686,36 +1726,39 @@
       <c r="J20" s="1">
         <v>40</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="1">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1744,36 +1787,39 @@
       <c r="J21" s="1">
         <v>75</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="1">
+        <v>40</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1796,34 +1842,37 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1846,36 +1895,39 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
         <v>-7</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>2</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1898,36 +1950,39 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1">
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
         <v>-39</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>2</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1950,36 +2005,39 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1">
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
         <v>-51</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>2</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2002,36 +2060,39 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
         <v>-75</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>2</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2054,36 +2115,39 @@
       <c r="J27" s="1">
         <v>5</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1">
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1">
         <v>-39</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>2</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2106,36 +2170,39 @@
       <c r="J28" s="1">
         <v>10</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1">
+      <c r="K28" s="1">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
         <v>-39</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>2</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2158,36 +2225,39 @@
       <c r="J29" s="1">
         <v>15</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1">
+      <c r="K29" s="1">
+        <v>15</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
         <v>-39</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>2</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2210,36 +2280,39 @@
       <c r="J30" s="1">
         <v>15</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1">
+      <c r="K30" s="1">
+        <v>15</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
         <v>-51</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>2</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2262,36 +2335,39 @@
       <c r="J31" s="1">
         <v>20</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1">
+      <c r="K31" s="1">
+        <v>20</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
         <v>-51</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>2</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2314,36 +2390,39 @@
       <c r="J32" s="1">
         <v>25</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1">
+      <c r="K32" s="1">
+        <v>25</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1">
         <v>-75</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>2</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2363,21 +2442,24 @@
       <c r="J33" s="1">
         <v>0</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1" t="s">
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>1000</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2397,23 +2479,26 @@
       <c r="J34" s="1">
         <v>0</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>-13</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>1000</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2433,23 +2518,26 @@
       <c r="J35" s="1">
         <v>0</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>-21</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>1000</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2463,17 +2551,20 @@
       <c r="J36" s="1">
         <v>33</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="1">
+        <v>33</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>-15</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2487,17 +2578,20 @@
       <c r="J37" s="1">
         <v>66</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="1">
+        <v>66</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>-15</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2511,13 +2605,16 @@
       <c r="J38" s="1">
         <v>100</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="1">
+        <v>100</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>-15</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="1">
         <v>5</v>
       </c>
     </row>

--- a/cbrunner/Parameters/Parameters_DisturbanceBySeverityClass.xlsx
+++ b/cbrunner/Parameters/Parameters_DisturbanceBySeverityClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2E9E1A-5AA7-4F79-85D2-072D58794CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80700043-B0D8-413D-A129-BE06D20B0287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{C4A0EEE3-6C0C-4781-B707-DFD67C25DDD8}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{C4A0EEE3-6C0C-4781-B707-DFD67C25DDD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>VV</t>
   </si>
   <si>
-    <t>IBM</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -80,18 +77,6 @@
     <t>GrowthFactor</t>
   </si>
   <si>
-    <t>IBB</t>
-  </si>
-  <si>
-    <t>IBD</t>
-  </si>
-  <si>
-    <t>IBS</t>
-  </si>
-  <si>
-    <t>IDW</t>
-  </si>
-  <si>
     <t>MortalityRateSource</t>
   </si>
   <si>
@@ -185,9 +170,6 @@
     <t xml:space="preserve">DMR 1-2: Present but no impact on growth or mortality (H. Kope pers comm.) </t>
   </si>
   <si>
-    <t>IDL</t>
-  </si>
-  <si>
     <t>Marnie Duthie-Holt</t>
   </si>
   <si>
@@ -195,6 +177,24 @@
   </si>
   <si>
     <t>MortalityFactorOld</t>
+  </si>
+  <si>
+    <t>Mountain Pine Beetle</t>
+  </si>
+  <si>
+    <t>Balsam Beetle</t>
+  </si>
+  <si>
+    <t>Douglas-fir Beetle</t>
+  </si>
+  <si>
+    <t>Spruce Beetle</t>
+  </si>
+  <si>
+    <t>Western Spruce Budworm</t>
+  </si>
+  <si>
+    <t>Hemlock Looper</t>
   </si>
 </sst>
 </file>
@@ -601,101 +601,101 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="720" activePane="bottomLeft"/>
+      <pane ySplit="720" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="L1" sqref="L1:L1048576"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
-    <col min="16" max="16" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="N1" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
@@ -732,28 +732,28 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1">
         <v>5</v>
@@ -762,13 +762,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -790,28 +790,28 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A38" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1">
         <v>20</v>
@@ -820,13 +820,13 @@
         <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -848,28 +848,28 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1">
         <v>40</v>
@@ -878,13 +878,13 @@
         <v>10</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -906,28 +906,28 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J6" s="1">
         <v>75</v>
@@ -936,13 +936,13 @@
         <v>40</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -964,25 +964,25 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -1019,25 +1019,25 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1">
         <v>5</v>
@@ -1046,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -1074,25 +1074,25 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1">
         <v>20</v>
@@ -1101,13 +1101,13 @@
         <v>4</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1129,25 +1129,25 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1">
         <v>40</v>
@@ -1156,13 +1156,13 @@
         <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -1184,25 +1184,25 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1">
         <v>75</v>
@@ -1211,13 +1211,13 @@
         <v>40</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
@@ -1239,25 +1239,25 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O12" s="1">
         <v>0</v>
@@ -1294,25 +1294,25 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J13" s="1">
         <v>5</v>
@@ -1321,13 +1321,13 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
@@ -1349,25 +1349,25 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J14" s="1">
         <v>20</v>
@@ -1376,13 +1376,13 @@
         <v>4</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
@@ -1404,25 +1404,25 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J15" s="1">
         <v>40</v>
@@ -1431,13 +1431,13 @@
         <v>10</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O15" s="1">
         <v>0</v>
@@ -1459,25 +1459,25 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J16" s="1">
         <v>75</v>
@@ -1486,13 +1486,13 @@
         <v>40</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O16" s="1">
         <v>0</v>
@@ -1514,25 +1514,25 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -1547,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O17" s="1">
         <v>0</v>
@@ -1575,25 +1575,25 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -1608,13 +1608,13 @@
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
@@ -1636,25 +1636,25 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -1669,13 +1669,13 @@
         <v>4</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O19" s="1">
         <v>0</v>
@@ -1697,25 +1697,25 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -1730,13 +1730,13 @@
         <v>10</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O20" s="1">
         <v>0</v>
@@ -1758,25 +1758,25 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -1791,13 +1791,13 @@
         <v>40</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O21" s="1">
         <v>0</v>
@@ -1819,25 +1819,25 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
@@ -1872,25 +1872,25 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>-7</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O23" s="1">
         <v>2</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1927,25 +1927,25 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -1958,13 +1958,13 @@
         <v>-39</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O24" s="1">
         <v>2</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1982,25 +1982,25 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>-51</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O25" s="1">
         <v>2</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2037,25 +2037,25 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -2068,13 +2068,13 @@
         <v>-75</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O26" s="1">
         <v>2</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2092,25 +2092,25 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J27" s="1">
         <v>5</v>
@@ -2123,13 +2123,13 @@
         <v>-39</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O27" s="1">
         <v>2</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2147,25 +2147,25 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J28" s="1">
         <v>10</v>
@@ -2178,13 +2178,13 @@
         <v>-39</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O28" s="1">
         <v>2</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2202,25 +2202,25 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J29" s="1">
         <v>15</v>
@@ -2233,13 +2233,13 @@
         <v>-39</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O29" s="1">
         <v>2</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2257,25 +2257,25 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J30" s="1">
         <v>15</v>
@@ -2288,13 +2288,13 @@
         <v>-51</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O30" s="1">
         <v>2</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2312,25 +2312,25 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J31" s="1">
         <v>20</v>
@@ -2343,13 +2343,13 @@
         <v>-51</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O31" s="1">
         <v>2</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -2367,25 +2367,25 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J32" s="1">
         <v>25</v>
@@ -2398,13 +2398,13 @@
         <v>-75</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O32" s="1">
         <v>2</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -2422,22 +2422,22 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -2450,31 +2450,31 @@
         <v>0</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O33" s="1">
         <v>1000</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -2483,37 +2483,37 @@
         <v>0</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M34" s="1">
         <v>-13</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O34" s="1">
         <v>1000</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -2522,28 +2522,28 @@
         <v>0</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M35" s="1">
         <v>-21</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O35" s="1">
         <v>1000</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>1</v>
@@ -2555,7 +2555,7 @@
         <v>33</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M36" s="1">
         <v>-15</v>
@@ -2564,13 +2564,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -2582,7 +2582,7 @@
         <v>66</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M37" s="1">
         <v>-15</v>
@@ -2591,13 +2591,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -2609,7 +2609,7 @@
         <v>100</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M38" s="1">
         <v>-15</v>
